--- a/Planilha.xlsx
+++ b/Planilha.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cds\Desktop\Desafio DSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e07570fb2ff39d68/Área de Trabalho/ProjetoBelina/DesafioDSV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAAAE34-BCE8-4940-9E05-72AC8A7905E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{FAAAAE34-BCE8-4940-9E05-72AC8A7905E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30C3891E-6FF4-4A47-A425-17FF466151F9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1CF9A05D-824A-4B95-87EC-067B9B76A041}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1CF9A05D-824A-4B95-87EC-067B9B76A041}"/>
   </bookViews>
   <sheets>
     <sheet name="Cliente" sheetId="1" r:id="rId1"/>
@@ -212,6 +212,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -241,8 +244,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -259,6 +263,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -560,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61CE179-277F-4F0D-AE19-6939E39A9B6B}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,6 +801,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -800,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81765D6F-56E5-41C5-A98C-A852C0BCAA5E}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,7 +870,7 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <v>44972</v>
       </c>
       <c r="I2">
@@ -887,7 +896,7 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>44986</v>
       </c>
       <c r="I3">
@@ -913,7 +922,7 @@
       <c r="F4">
         <v>20</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>45066</v>
       </c>
       <c r="I4">
@@ -939,7 +948,7 @@
       <c r="F5">
         <v>15</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <v>45168</v>
       </c>
       <c r="I5">
@@ -965,7 +974,7 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>45087</v>
       </c>
       <c r="I6">
@@ -991,7 +1000,7 @@
       <c r="F7">
         <v>150</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <v>45092</v>
       </c>
       <c r="I7">
@@ -1051,5 +1060,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>